--- a/biology/Zoologie/Aeluroidea/Aeluroidea.xlsx
+++ b/biology/Zoologie/Aeluroidea/Aeluroidea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Aeluroidea sont un clade de carnivores féliformes qui sont, ou étaient, endémiques en Amérique du Nord, Amérique du Sud, en Afrique et en Asie. Ils sont apparus pendant l'Oligocène, il y a environ 33,3 millions d'années[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Aeluroidea sont un clade de carnivores féliformes qui sont, ou étaient, endémiques en Amérique du Nord, Amérique du Sud, en Afrique et en Asie. Ils sont apparus pendant l'Oligocène, il y a environ 33,3 millions d'années.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste des sous-familles, genres et familles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Paleobiology Database                   (23 mars 2020)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Paleobiology Database                   (23 mars 2020) :
 genre Anictis
 famille Felidae
 genre Haplogale
